--- a/data/typhoon/tides_record.xlsx
+++ b/data/typhoon/tides_record.xlsx
@@ -457,11 +457,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.74</v>
+        <v>3.3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>23/09/2025 22:35</t>
+          <t>24/09/2025 08:25</t>
         </is>
       </c>
     </row>
@@ -472,11 +472,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.71</v>
+        <v>3.49</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>23/09/2025 23:40</t>
+          <t>24/09/2025 11:55</t>
         </is>
       </c>
     </row>
@@ -487,11 +487,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.76</v>
+        <v>3.76</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>23/09/2025 22:50</t>
+          <t>24/09/2025 12:15</t>
         </is>
       </c>
     </row>
@@ -502,11 +502,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.82</v>
+        <v>3.46</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>24/09/2025 00:10</t>
+          <t>24/09/2025 09:00</t>
         </is>
       </c>
     </row>
@@ -517,11 +517,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.96</v>
+        <v>3.63</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>23/09/2025 21:55</t>
+          <t>24/09/2025 09:15</t>
         </is>
       </c>
     </row>
@@ -532,11 +532,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.77</v>
+        <v>3.64</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>23/09/2025 22:45</t>
+          <t>24/09/2025 11:45</t>
         </is>
       </c>
     </row>
